--- a/output_with_confidence.xlsx
+++ b/output_with_confidence.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD340560667FA371159EE483642E3F50A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF5EA78-173D-4DAA-B2F9-49203B9E6027}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="780" yWindow="795" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Human Tag</t>
+  </si>
+  <si>
+    <t>Human Sentiment</t>
+  </si>
+  <si>
+    <t>Prompt 1 Tag</t>
+  </si>
+  <si>
+    <t>Prompt 1 Tag Confidence</t>
+  </si>
+  <si>
+    <t>Prompt 1 Sentiment</t>
+  </si>
+  <si>
+    <t>Prompt 1 Sentiment Confidence</t>
+  </si>
+  <si>
+    <t>Prompt 1 Sentiment Fallback</t>
+  </si>
+  <si>
+    <t>The layout is more simple than before, I found what I was looking for.</t>
+  </si>
+  <si>
+    <t>Ease of use</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
+  </si>
+  <si>
+    <t>Early pop up</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>[Ease of use]</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Great service, the site was fast today</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+  </si>
+  <si>
+    <t>Can't Refill</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +120,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,211 +444,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Input</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Human Tag</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Human Sentiment</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Tag</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Tag Confidence</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Sentiment</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Sentiment Confidence</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Sentiment Fallback</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The layout is more simple than before, I found what I was looking for.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Used fallback</t>
-        </is>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Early pop up</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[Ease of use]</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>0.75</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.04164286099683935</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Great service, the site was fast today</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>0.75</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Used fallback</t>
-        </is>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Can't Refill</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01742181812073498</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0.75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/output_with_confidence.xlsx
+++ b/output_with_confidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD340560667FA371159EE483642E3F50A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF5EA78-173D-4DAA-B2F9-49203B9E6027}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD3405B6CEF3B2E11595DE8B47589EBCD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="795" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Input</t>
   </si>
@@ -31,22 +31,19 @@
     <t>Human Sentiment</t>
   </si>
   <si>
-    <t>Prompt 1 Tag</t>
-  </si>
-  <si>
-    <t>Prompt 1 Tag Confidence</t>
-  </si>
-  <si>
-    <t>Prompt 1 Sentiment</t>
-  </si>
-  <si>
-    <t>Prompt 1 Sentiment Confidence</t>
-  </si>
-  <si>
-    <t>Prompt 1 Sentiment Fallback</t>
-  </si>
-  <si>
-    <t>The layout is more simple than before, I found what I was looking for.</t>
+    <t>Tagging Prompt 1 Tag</t>
+  </si>
+  <si>
+    <t>Tagging Prompt 1 Tag Confidence</t>
+  </si>
+  <si>
+    <t>Sentiment Prompt 1 Sentiment</t>
+  </si>
+  <si>
+    <t>Sentiment Prompt 1 Sentiment Confidence</t>
+  </si>
+  <si>
+    <t>The layout is more simple than before.</t>
   </si>
   <si>
     <t>Ease of use</t>
@@ -55,7 +52,7 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Calculated</t>
+    <t>Neutral</t>
   </si>
   <si>
     <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
@@ -64,25 +61,79 @@
     <t>Early pop up</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>Negative</t>
   </si>
   <si>
     <t>[Ease of use]</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Great service, the site was fast today</t>
+    <t>Great service</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
+    <t>[Great service]</t>
+  </si>
+  <si>
     <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
   </si>
   <si>
     <t>Can't Refill</t>
+  </si>
+  <si>
+    <t>because this new sign in sucks. takes twice as long to sign in.</t>
+  </si>
+  <si>
+    <t>Sign in/access</t>
+  </si>
+  <si>
+    <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
+  </si>
+  <si>
+    <t>Findability/Nav</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Making sure my profile information is up to date.</t>
+  </si>
+  <si>
+    <t>Answered Question</t>
+  </si>
+  <si>
+    <t>Could not access messaging app.</t>
+  </si>
+  <si>
+    <t>Sign in or access</t>
+  </si>
+  <si>
+    <t>Iâ€™m a Vietnam vet, that means Iâ€™m an older person, older people have a harder time with technology. Had to have mygranddaughter helped me. Sheâ€™s not here today so Iâ€™m trying to navigate this on my own. Itâ€™s not easy. Not all of us were born With a smart phone or a tablet our hands.</t>
+  </si>
+  <si>
+    <t>Everything keeps changing</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>hard to navigate</t>
+  </si>
+  <si>
+    <t>Findability/ Navigation</t>
+  </si>
+  <si>
+    <t>Access is sometimes problematic</t>
+  </si>
+  <si>
+    <t>Being able to message providers is a crucial part of health care.  I was easily able to log in and message a provider, therefore my expectations were met.</t>
+  </si>
+  <si>
+    <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
+  </si>
+  <si>
+    <t>['Ease of use']</t>
   </si>
 </sst>
 </file>
@@ -445,18 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="20.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,22 +526,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -502,88 +547,306 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>0.75</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>0.75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0.75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>0.75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0.75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>0.75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0.75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>0.75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output_with_confidence.xlsx
+++ b/output_with_confidence.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD3405B6CEF3B2E11595DE8B47589EBCD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_2B59D2BFD3B0577A6B5B3D11594A40F66B57EBF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF596EC4-FA9F-4BDE-895B-A13611D74995}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1395" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Input</t>
   </si>
@@ -64,22 +77,16 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>[Ease of use]</t>
-  </si>
-  <si>
     <t>Great service</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>[Great service]</t>
-  </si>
-  <si>
     <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
   </si>
   <si>
-    <t>Can't Refill</t>
+    <t>Cant Refill</t>
   </si>
   <si>
     <t>because this new sign in sucks. takes twice as long to sign in.</t>
@@ -88,6 +95,9 @@
     <t>Sign in/access</t>
   </si>
   <si>
+    <t>Sign in or access</t>
+  </si>
+  <si>
     <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
   </si>
   <si>
@@ -106,9 +116,6 @@
     <t>Could not access messaging app.</t>
   </si>
   <si>
-    <t>Sign in or access</t>
-  </si>
-  <si>
     <t>Iâ€™m a Vietnam vet, that means Iâ€™m an older person, older people have a harder time with technology. Had to have mygranddaughter helped me. Sheâ€™s not here today so Iâ€™m trying to navigate this on my own. Itâ€™s not easy. Not all of us were born With a smart phone or a tablet our hands.</t>
   </si>
   <si>
@@ -133,14 +140,17 @@
     <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
   </si>
   <si>
-    <t>['Ease of use']</t>
+    <t>ACCURACY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +163,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -189,11 +213,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,13 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -561,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0.75</v>
@@ -570,21 +600,21 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0.75</v>
@@ -598,7 +628,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -607,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0.75</v>
@@ -616,21 +646,21 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6">
         <v>0.75</v>
@@ -644,16 +674,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>0.75</v>
@@ -667,10 +697,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -690,16 +720,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0.75</v>
@@ -713,7 +743,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -728,24 +758,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0.75</v>
@@ -759,16 +789,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0.75</v>
@@ -782,16 +812,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0.75</v>
@@ -805,7 +835,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -828,16 +858,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0.75</v>
@@ -847,6 +877,20 @@
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <f>COUNTIF(E2:E15, "1") / COUNTA(E2:E15)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3">
+        <f>COUNTIF(G2:G15, "1") / COUNTA(G2:G15)</f>
+        <v>0.7857142857142857</v>
       </c>
     </row>
   </sheetData>
